--- a/Code/Results/Cases/Case_8_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005229940036858</v>
+        <v>1.003689332278251</v>
       </c>
       <c r="D2">
-        <v>1.024222596816744</v>
+        <v>1.022752922313712</v>
       </c>
       <c r="E2">
-        <v>1.019526312075091</v>
+        <v>1.018294534257153</v>
       </c>
       <c r="F2">
-        <v>1.027420930228841</v>
+        <v>1.026425226582564</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048810195250693</v>
+        <v>1.048064066862381</v>
       </c>
       <c r="J2">
-        <v>1.027255341858279</v>
+        <v>1.025760253228271</v>
       </c>
       <c r="K2">
-        <v>1.035354479579108</v>
+        <v>1.033904118506771</v>
       </c>
       <c r="L2">
-        <v>1.030720155208088</v>
+        <v>1.029504747596017</v>
       </c>
       <c r="M2">
-        <v>1.038511021877389</v>
+        <v>1.037528293650662</v>
       </c>
       <c r="N2">
-        <v>1.028714162271555</v>
+        <v>1.024040800866509</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039051279590552</v>
+        <v>1.038273514099527</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.0360689275995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035052195201326</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021143605529756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009185359225951</v>
+        <v>1.007287303192393</v>
       </c>
       <c r="D3">
-        <v>1.026844855476017</v>
+        <v>1.025043232584256</v>
       </c>
       <c r="E3">
-        <v>1.022648395632053</v>
+        <v>1.021126814521375</v>
       </c>
       <c r="F3">
-        <v>1.03047633672063</v>
+        <v>1.02924775863945</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049647775687542</v>
+        <v>1.048732164498435</v>
       </c>
       <c r="J3">
-        <v>1.029428716015811</v>
+        <v>1.027581261267752</v>
       </c>
       <c r="K3">
-        <v>1.037145397625747</v>
+        <v>1.035365402310076</v>
       </c>
       <c r="L3">
-        <v>1.0329994606629</v>
+        <v>1.031496325918016</v>
       </c>
       <c r="M3">
-        <v>1.040733569629092</v>
+        <v>1.039519601231581</v>
       </c>
       <c r="N3">
-        <v>1.030890622869678</v>
+        <v>1.025061817953111</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040810278510195</v>
+        <v>1.039849503690786</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.0373325980322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036082504908222</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021430488803925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011696690129332</v>
+        <v>1.009574076582753</v>
       </c>
       <c r="D4">
-        <v>1.028510209914027</v>
+        <v>1.026499305333532</v>
       </c>
       <c r="E4">
-        <v>1.024636945487051</v>
+        <v>1.022933078879417</v>
       </c>
       <c r="F4">
-        <v>1.032425026878024</v>
+        <v>1.031050102060499</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05016476583739</v>
+        <v>1.049142090911376</v>
       </c>
       <c r="J4">
-        <v>1.030805853087847</v>
+        <v>1.028736007196003</v>
       </c>
       <c r="K4">
-        <v>1.038276300504377</v>
+        <v>1.036288090334915</v>
       </c>
       <c r="L4">
-        <v>1.03444684643556</v>
+        <v>1.03276238181834</v>
       </c>
       <c r="M4">
-        <v>1.04214724821262</v>
+        <v>1.040787684016105</v>
       </c>
       <c r="N4">
-        <v>1.032269715634315</v>
+        <v>1.025709265642773</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041929108977141</v>
+        <v>1.040853106399555</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03813314667643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036735910367568</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021608997472015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012743840903923</v>
+        <v>1.010528051780996</v>
       </c>
       <c r="D5">
-        <v>1.029206424037396</v>
+        <v>1.027108618908119</v>
       </c>
       <c r="E5">
-        <v>1.025467790567411</v>
+        <v>1.02368823318288</v>
       </c>
       <c r="F5">
-        <v>1.033239411481454</v>
+        <v>1.031803749678627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050377958823294</v>
+        <v>1.049310777642861</v>
       </c>
       <c r="J5">
-        <v>1.031380476012077</v>
+        <v>1.029218128851659</v>
       </c>
       <c r="K5">
-        <v>1.038748589032122</v>
+        <v>1.036673833093621</v>
       </c>
       <c r="L5">
-        <v>1.035051113802921</v>
+        <v>1.033291277260753</v>
       </c>
       <c r="M5">
-        <v>1.042737587486903</v>
+        <v>1.041317536494839</v>
       </c>
       <c r="N5">
-        <v>1.032845154589008</v>
+        <v>1.025979582602895</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042396321857164</v>
+        <v>1.041272448783836</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038474281579361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037016569930938</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021683355990747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012922115932432</v>
+        <v>1.01069039474206</v>
       </c>
       <c r="D6">
-        <v>1.029327080626492</v>
+        <v>1.027214530908554</v>
       </c>
       <c r="E6">
-        <v>1.025609566917069</v>
+        <v>1.023817054620511</v>
       </c>
       <c r="F6">
-        <v>1.033377892697861</v>
+        <v>1.03193183891481</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050415540152812</v>
+        <v>1.049340805203191</v>
       </c>
       <c r="J6">
-        <v>1.031479587740517</v>
+        <v>1.029301416700356</v>
       </c>
       <c r="K6">
-        <v>1.038831647649382</v>
+        <v>1.036742203538939</v>
       </c>
       <c r="L6">
-        <v>1.035154871707418</v>
+        <v>1.033382132306643</v>
       </c>
       <c r="M6">
-        <v>1.042838478804747</v>
+        <v>1.041408076660862</v>
       </c>
       <c r="N6">
-        <v>1.032944407067471</v>
+        <v>1.026026280545998</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042476170356932</v>
+        <v>1.041344105174466</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038541773287565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037074555713694</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021696952090975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01171900795767</v>
+        <v>1.009614709433061</v>
       </c>
       <c r="D7">
-        <v>1.028530699251457</v>
+        <v>1.026532017713829</v>
       </c>
       <c r="E7">
-        <v>1.024655304012139</v>
+        <v>1.022967096945668</v>
       </c>
       <c r="F7">
-        <v>1.032441617243757</v>
+        <v>1.03107908015964</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050173312288458</v>
+        <v>1.049156849106874</v>
       </c>
       <c r="J7">
-        <v>1.03082163486447</v>
+        <v>1.028769625200638</v>
       </c>
       <c r="K7">
-        <v>1.038293669072464</v>
+        <v>1.036317535035637</v>
       </c>
       <c r="L7">
-        <v>1.034462091620196</v>
+        <v>1.032793100594958</v>
       </c>
       <c r="M7">
-        <v>1.042160778053054</v>
+        <v>1.040813457294</v>
       </c>
       <c r="N7">
-        <v>1.032285519822872</v>
+        <v>1.0257804876596</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041939816917441</v>
+        <v>1.040873504210686</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038165583100687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036778908765691</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021617414152201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006586984969567</v>
+        <v>1.004987020518157</v>
       </c>
       <c r="D8">
-        <v>1.025128932075757</v>
+        <v>1.023588879956166</v>
       </c>
       <c r="E8">
-        <v>1.020597003891294</v>
+        <v>1.019319859842466</v>
       </c>
       <c r="F8">
-        <v>1.028466486989372</v>
+        <v>1.027433650854797</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049105344422665</v>
+        <v>1.048323210612012</v>
       </c>
       <c r="J8">
-        <v>1.028005823092297</v>
+        <v>1.026451542359473</v>
       </c>
       <c r="K8">
-        <v>1.035978943288432</v>
+        <v>1.034458530652074</v>
       </c>
       <c r="L8">
-        <v>1.031505020283262</v>
+        <v>1.030244339225916</v>
       </c>
       <c r="M8">
-        <v>1.039274188011863</v>
+        <v>1.03825440848165</v>
       </c>
       <c r="N8">
-        <v>1.029465709275003</v>
+        <v>1.024587207732649</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039655275380129</v>
+        <v>1.038848186855204</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036533454703737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035469478933798</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021259036880172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9971459126898912</v>
+        <v>0.9964266364385982</v>
       </c>
       <c r="D9">
-        <v>1.018868280664269</v>
+        <v>1.018137921531422</v>
       </c>
       <c r="E9">
-        <v>1.013181921278002</v>
+        <v>1.012617873835954</v>
       </c>
       <c r="F9">
-        <v>1.021226342653943</v>
+        <v>1.020767220804541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047019626039814</v>
+        <v>1.046649581471658</v>
       </c>
       <c r="J9">
-        <v>1.022799860268814</v>
+        <v>1.022106213502159</v>
       </c>
       <c r="K9">
-        <v>1.031662474792227</v>
+        <v>1.030943421610357</v>
       </c>
       <c r="L9">
-        <v>1.026064690972631</v>
+        <v>1.025509498999269</v>
       </c>
       <c r="M9">
-        <v>1.033984174907234</v>
+        <v>1.033532116013708</v>
       </c>
       <c r="N9">
-        <v>1.024252353387179</v>
+        <v>1.022170132552973</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035468567519866</v>
+        <v>1.035110790604344</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033478212485869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032980577990797</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020553613119188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.990648358690408</v>
+        <v>0.9906428676267578</v>
       </c>
       <c r="D10">
-        <v>1.014571616463739</v>
+        <v>1.014470520506253</v>
       </c>
       <c r="E10">
-        <v>1.008158420086489</v>
+        <v>1.008174602194017</v>
       </c>
       <c r="F10">
-        <v>1.016386976745619</v>
+        <v>1.01639454116953</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045521213663447</v>
+        <v>1.045470070466702</v>
       </c>
       <c r="J10">
-        <v>1.019237984351234</v>
+        <v>1.019232717032148</v>
       </c>
       <c r="K10">
-        <v>1.02868266735205</v>
+        <v>1.028583329698276</v>
       </c>
       <c r="L10">
-        <v>1.022381917722941</v>
+        <v>1.02239781376417</v>
       </c>
       <c r="M10">
-        <v>1.030466531143982</v>
+        <v>1.030473964629727</v>
       </c>
       <c r="N10">
-        <v>1.020685419197243</v>
+        <v>1.020793112486656</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032736362512645</v>
+        <v>1.032742245310544</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031388173637546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03133041287992</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020076959875355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9883987200931287</v>
+        <v>0.9887508717600083</v>
       </c>
       <c r="D11">
-        <v>1.013114558856188</v>
+        <v>1.013305113426208</v>
       </c>
       <c r="E11">
-        <v>1.006768554972588</v>
+        <v>1.007077854365291</v>
       </c>
       <c r="F11">
-        <v>1.015466179855273</v>
+        <v>1.015708619251861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04506559855865</v>
+        <v>1.045161936922558</v>
       </c>
       <c r="J11">
-        <v>1.018262218774005</v>
+        <v>1.018599232933375</v>
       </c>
       <c r="K11">
-        <v>1.027793320416736</v>
+        <v>1.027980402319888</v>
       </c>
       <c r="L11">
-        <v>1.021563945227963</v>
+        <v>1.021867515800332</v>
       </c>
       <c r="M11">
-        <v>1.030102204089313</v>
+        <v>1.030340252132944</v>
       </c>
       <c r="N11">
-        <v>1.019708267920973</v>
+        <v>1.020884543430958</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032887078517452</v>
+        <v>1.033075371742992</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030792385662243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030940361054369</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019989411328449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.987788502728866</v>
+        <v>0.9882387836721369</v>
       </c>
       <c r="D12">
-        <v>1.01272803658892</v>
+        <v>1.012997174004587</v>
       </c>
       <c r="E12">
-        <v>1.006551576428791</v>
+        <v>1.006939377315678</v>
       </c>
       <c r="F12">
-        <v>1.015561686276881</v>
+        <v>1.015867288831066</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044972874284734</v>
+        <v>1.045108910892214</v>
       </c>
       <c r="J12">
-        <v>1.018118819917786</v>
+        <v>1.018549376864161</v>
       </c>
       <c r="K12">
-        <v>1.027615383641156</v>
+        <v>1.027879534153156</v>
       </c>
       <c r="L12">
-        <v>1.02155432583321</v>
+        <v>1.021934826551736</v>
       </c>
       <c r="M12">
-        <v>1.030396700786407</v>
+        <v>1.030696682118946</v>
       </c>
       <c r="N12">
-        <v>1.01956466542193</v>
+        <v>1.02105050390565</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033448226389751</v>
+        <v>1.033685426912903</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030666577269989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030869044779076</v>
+      </c>
+      <c r="S12">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T12">
+        <v>1.019989356048968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9884103881576495</v>
+        <v>0.9887493761503824</v>
       </c>
       <c r="D13">
-        <v>1.013152760286662</v>
+        <v>1.013330924482258</v>
       </c>
       <c r="E13">
-        <v>1.007233401657213</v>
+        <v>1.007527043065496</v>
       </c>
       <c r="F13">
-        <v>1.016465521926965</v>
+        <v>1.016696384213326</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045165622568736</v>
+        <v>1.045255681978046</v>
       </c>
       <c r="J13">
-        <v>1.018619022881785</v>
+        <v>1.018943240625666</v>
       </c>
       <c r="K13">
-        <v>1.027989036235769</v>
+        <v>1.028163913452687</v>
       </c>
       <c r="L13">
-        <v>1.022179747940581</v>
+        <v>1.022467889290836</v>
       </c>
       <c r="M13">
-        <v>1.031240925631214</v>
+        <v>1.031467565055975</v>
       </c>
       <c r="N13">
-        <v>1.020065578731512</v>
+        <v>1.021228400373285</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034393675235205</v>
+        <v>1.034572837601911</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030928258072495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031067358777791</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020061018877584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9894013275933407</v>
+        <v>0.989572182731297</v>
       </c>
       <c r="D14">
-        <v>1.013816975623112</v>
+        <v>1.013858193097698</v>
       </c>
       <c r="E14">
-        <v>1.008113733588332</v>
+        <v>1.008267821194378</v>
       </c>
       <c r="F14">
-        <v>1.017460010752035</v>
+        <v>1.017579647184377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045429239639976</v>
+        <v>1.045450078107637</v>
       </c>
       <c r="J14">
-        <v>1.019258063655333</v>
+        <v>1.019421583253405</v>
       </c>
       <c r="K14">
-        <v>1.028499578286611</v>
+        <v>1.028540044843276</v>
       </c>
       <c r="L14">
-        <v>1.02290101224605</v>
+        <v>1.023052251473764</v>
       </c>
       <c r="M14">
-        <v>1.032076548456904</v>
+        <v>1.032194025760128</v>
       </c>
       <c r="N14">
-        <v>1.020705527016258</v>
+        <v>1.02136051870901</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035228173339486</v>
+        <v>1.035321028567154</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031290664224392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031334864268989</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020144866665381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9899164630031737</v>
+        <v>0.9900028766219844</v>
       </c>
       <c r="D15">
-        <v>1.014160940708253</v>
+        <v>1.014133370329681</v>
       </c>
       <c r="E15">
-        <v>1.008534159774281</v>
+        <v>1.008618788217099</v>
       </c>
       <c r="F15">
-        <v>1.017896396343231</v>
+        <v>1.017960539917208</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04555845773986</v>
+        <v>1.045544517419163</v>
       </c>
       <c r="J15">
-        <v>1.019561161344864</v>
+        <v>1.019643897670675</v>
       </c>
       <c r="K15">
-        <v>1.028750181514057</v>
+        <v>1.028723109594337</v>
       </c>
       <c r="L15">
-        <v>1.023225865639351</v>
+        <v>1.023308941948322</v>
       </c>
       <c r="M15">
-        <v>1.032418426210974</v>
+        <v>1.032481421263389</v>
       </c>
       <c r="N15">
-        <v>1.021009055139274</v>
+        <v>1.021404647493882</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035536047385033</v>
+        <v>1.035585837987411</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031473752573069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031470769861717</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020183474935946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9925478130529017</v>
+        <v>0.9922302619455688</v>
       </c>
       <c r="D16">
-        <v>1.015900383484084</v>
+        <v>1.015540740326621</v>
       </c>
       <c r="E16">
-        <v>1.01053313969717</v>
+        <v>1.010288141883298</v>
       </c>
       <c r="F16">
-        <v>1.019804243940754</v>
+        <v>1.019604355438556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046174547351465</v>
+        <v>1.045992592090542</v>
       </c>
       <c r="J16">
-        <v>1.020982509207303</v>
+        <v>1.020677791636882</v>
       </c>
       <c r="K16">
-        <v>1.029952513380842</v>
+        <v>1.029599087934777</v>
       </c>
       <c r="L16">
-        <v>1.02467865723038</v>
+        <v>1.024437952950942</v>
       </c>
       <c r="M16">
-        <v>1.033789246304252</v>
+        <v>1.03359277878413</v>
       </c>
       <c r="N16">
-        <v>1.022432421478708</v>
+        <v>1.021578015664712</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036580701985743</v>
+        <v>1.036425411725671</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03232703296748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03209360456147</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020356973025442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9940492480329749</v>
+        <v>0.9935266272450092</v>
       </c>
       <c r="D17">
-        <v>1.016888573691252</v>
+        <v>1.016356910320815</v>
       </c>
       <c r="E17">
-        <v>1.011607387765774</v>
+        <v>1.011195848252085</v>
       </c>
       <c r="F17">
-        <v>1.020742973645235</v>
+        <v>1.020409393422277</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046506040453512</v>
+        <v>1.046236952485805</v>
       </c>
       <c r="J17">
-        <v>1.021738041300227</v>
+        <v>1.02123586077814</v>
       </c>
       <c r="K17">
-        <v>1.030606826023315</v>
+        <v>1.030084095701731</v>
       </c>
       <c r="L17">
-        <v>1.025414912940496</v>
+        <v>1.02501038064216</v>
       </c>
       <c r="M17">
-        <v>1.034396822436764</v>
+        <v>1.034068791267718</v>
       </c>
       <c r="N17">
-        <v>1.023189026513865</v>
+        <v>1.021702154341005</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036931503276597</v>
+        <v>1.036672197562398</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032792259431833</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032439374160074</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020447453635525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9947036096001123</v>
+        <v>0.9941060870575982</v>
       </c>
       <c r="D18">
-        <v>1.017307382056851</v>
+        <v>1.016710894833357</v>
       </c>
       <c r="E18">
-        <v>1.011951412886209</v>
+        <v>1.011479688025928</v>
       </c>
       <c r="F18">
-        <v>1.02087523964867</v>
+        <v>1.020492997835435</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046618562389126</v>
+        <v>1.04631659999387</v>
       </c>
       <c r="J18">
-        <v>1.021968212312967</v>
+        <v>1.021393623510646</v>
       </c>
       <c r="K18">
-        <v>1.030833908431114</v>
+        <v>1.030247278880823</v>
       </c>
       <c r="L18">
-        <v>1.025566989665201</v>
+        <v>1.025103166131264</v>
       </c>
       <c r="M18">
-        <v>1.034343112054366</v>
+        <v>1.033967128904812</v>
       </c>
       <c r="N18">
-        <v>1.023419524395843</v>
+        <v>1.02170790611191</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036650493327219</v>
+        <v>1.036353219609457</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032941125218823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03254191952764</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020466303051255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9945966815022368</v>
+        <v>0.9940275129903335</v>
       </c>
       <c r="D19">
-        <v>1.017222391520531</v>
+        <v>1.016648763247944</v>
       </c>
       <c r="E19">
-        <v>1.011633263008444</v>
+        <v>1.011185545916805</v>
       </c>
       <c r="F19">
-        <v>1.020269060113589</v>
+        <v>1.019905533519021</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046541415912154</v>
+        <v>1.046251006355777</v>
       </c>
       <c r="J19">
-        <v>1.021729554294727</v>
+        <v>1.021182109012989</v>
       </c>
       <c r="K19">
-        <v>1.030687335647919</v>
+        <v>1.030123138382988</v>
       </c>
       <c r="L19">
-        <v>1.025190684692665</v>
+        <v>1.024750432491119</v>
       </c>
       <c r="M19">
-        <v>1.033684142426893</v>
+        <v>1.033326545199287</v>
       </c>
       <c r="N19">
-        <v>1.023180527455844</v>
+        <v>1.021566023997097</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03580251304299</v>
+        <v>1.035519683055819</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032843917224891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03246120033963</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020421676540134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9923549106819014</v>
+        <v>0.9921005168251166</v>
       </c>
       <c r="D20">
-        <v>1.015712205384399</v>
+        <v>1.015404560294073</v>
       </c>
       <c r="E20">
-        <v>1.009479192916513</v>
+        <v>1.009290414034063</v>
       </c>
       <c r="F20">
-        <v>1.017657834354169</v>
+        <v>1.017501215501524</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045928883898158</v>
+        <v>1.045773189683933</v>
       </c>
       <c r="J20">
-        <v>1.020183752293005</v>
+        <v>1.01993938359235</v>
       </c>
       <c r="K20">
-        <v>1.02948428871367</v>
+        <v>1.029181841446841</v>
       </c>
       <c r="L20">
-        <v>1.023357385160299</v>
+        <v>1.023171846422415</v>
       </c>
       <c r="M20">
-        <v>1.031397139123347</v>
+        <v>1.031243152890428</v>
       </c>
       <c r="N20">
-        <v>1.021632530237973</v>
+        <v>1.02099296159541</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033462223385444</v>
+        <v>1.033340358510751</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031997251505847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031799995615048</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020197641467067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9873485464394709</v>
+        <v>0.9879348856111915</v>
       </c>
       <c r="D21">
-        <v>1.012397436844199</v>
+        <v>1.012774016844503</v>
       </c>
       <c r="E21">
-        <v>1.005556504180578</v>
+        <v>1.006064354390802</v>
       </c>
       <c r="F21">
-        <v>1.013802846429049</v>
+        <v>1.014203166979822</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044732908194487</v>
+        <v>1.044923278197041</v>
       </c>
       <c r="J21">
-        <v>1.017384911180948</v>
+        <v>1.017945851052605</v>
       </c>
       <c r="K21">
-        <v>1.02714768190297</v>
+        <v>1.027517356582425</v>
       </c>
       <c r="L21">
-        <v>1.020433366042623</v>
+        <v>1.020931739391575</v>
       </c>
       <c r="M21">
-        <v>1.028527354640376</v>
+        <v>1.028920361231061</v>
       </c>
       <c r="N21">
-        <v>1.018829714450505</v>
+        <v>1.020690110269639</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031149816474716</v>
+        <v>1.031460858876103</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030348417551844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030626708603468</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019869127556276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9841643122121192</v>
+        <v>0.9852677057906472</v>
       </c>
       <c r="D22">
-        <v>1.01028857112563</v>
+        <v>1.011088608351096</v>
       </c>
       <c r="E22">
-        <v>1.003090515301177</v>
+        <v>1.004027307218893</v>
       </c>
       <c r="F22">
-        <v>1.011409843175936</v>
+        <v>1.012153006870555</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043959218974361</v>
+        <v>1.04436337828121</v>
       </c>
       <c r="J22">
-        <v>1.015615635142507</v>
+        <v>1.016668414605744</v>
       </c>
       <c r="K22">
-        <v>1.02565892812646</v>
+        <v>1.026443552448297</v>
       </c>
       <c r="L22">
-        <v>1.018600996093288</v>
+        <v>1.019519402330156</v>
       </c>
       <c r="M22">
-        <v>1.026758607593561</v>
+        <v>1.027487494533848</v>
       </c>
       <c r="N22">
-        <v>1.017057925837151</v>
+        <v>1.020448917412188</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029749951896025</v>
+        <v>1.030326825573851</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029282206149541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029852589066693</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01965386371731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9858519111107417</v>
+        <v>0.9866527716357466</v>
       </c>
       <c r="D23">
-        <v>1.011401562650899</v>
+        <v>1.011957120554343</v>
       </c>
       <c r="E23">
-        <v>1.004395753560313</v>
+        <v>1.005080396619721</v>
       </c>
       <c r="F23">
-        <v>1.012677348174916</v>
+        <v>1.013219303088927</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044367732740931</v>
+        <v>1.044648489017174</v>
       </c>
       <c r="J23">
-        <v>1.016550679529884</v>
+        <v>1.017315892777149</v>
       </c>
       <c r="K23">
-        <v>1.026442825890069</v>
+        <v>1.026987954949605</v>
       </c>
       <c r="L23">
-        <v>1.01956982447705</v>
+        <v>1.020241382095232</v>
       </c>
       <c r="M23">
-        <v>1.027694684808818</v>
+        <v>1.028226499479247</v>
       </c>
       <c r="N23">
-        <v>1.01799429809481</v>
+        <v>1.020490033704287</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.0304908051234</v>
+        <v>1.030911706603553</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029826765043866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030226870398099</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019760513149583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9923649561828948</v>
+        <v>0.9921107900660538</v>
       </c>
       <c r="D24">
-        <v>1.015709415334671</v>
+        <v>1.015401500659469</v>
       </c>
       <c r="E24">
-        <v>1.009452595493944</v>
+        <v>1.009264185858945</v>
       </c>
       <c r="F24">
-        <v>1.017592516950628</v>
+        <v>1.017436130517003</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045919240726824</v>
+        <v>1.045763407497807</v>
       </c>
       <c r="J24">
-        <v>1.020160112016908</v>
+        <v>1.019915947693049</v>
       </c>
       <c r="K24">
-        <v>1.029466160295973</v>
+        <v>1.029163441360013</v>
       </c>
       <c r="L24">
-        <v>1.023315721820641</v>
+        <v>1.023130542052659</v>
       </c>
       <c r="M24">
-        <v>1.0313175747417</v>
+        <v>1.031163814082694</v>
       </c>
       <c r="N24">
-        <v>1.021608856389973</v>
+        <v>1.020971834809954</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033358114256265</v>
+        <v>1.033236421771834</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031956885429292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031756754399598</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020189527674767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9996472371748942</v>
+        <v>0.9986656368237963</v>
       </c>
       <c r="D25">
-        <v>1.020534113973718</v>
+        <v>1.01957008129431</v>
       </c>
       <c r="E25">
-        <v>1.015141399772074</v>
+        <v>1.014363987118589</v>
       </c>
       <c r="F25">
-        <v>1.023134998497772</v>
+        <v>1.022504379365666</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047590897687231</v>
+        <v>1.047102164926529</v>
       </c>
       <c r="J25">
-        <v>1.02418647903104</v>
+        <v>1.023237991210322</v>
       </c>
       <c r="K25">
-        <v>1.032821812861652</v>
+        <v>1.031872007326025</v>
       </c>
       <c r="L25">
-        <v>1.027509125698775</v>
+        <v>1.026743339013114</v>
       </c>
       <c r="M25">
-        <v>1.035384483418156</v>
+        <v>1.034763107107982</v>
       </c>
       <c r="N25">
-        <v>1.025640941307095</v>
+        <v>1.022738351547052</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036576824759173</v>
+        <v>1.036085044205538</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034326647833529</v>
+        <v>1.033668677124501</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020742272662855</v>
       </c>
     </row>
   </sheetData>
